--- a/Стипендия.xlsx
+++ b/Стипендия.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\Практика\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Word-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4924E8F-E843-4E6A-A6EC-FA788795A226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E64DD7-A619-4A5C-AA47-957A69527F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{6E9D08AC-7128-450B-AF77-87E78F4D5DA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6E9D08AC-7128-450B-AF77-87E78F4D5DA5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Оценки" sheetId="1" r:id="rId1"/>
+    <sheet name="Итоги сессии" sheetId="2" r:id="rId2"/>
+    <sheet name="Стипендиальный фонд" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="Базовая">'Стипендиальный фонд'!$D$7</definedName>
+    <definedName name="Фонд">'Стипендиальный фонд'!$D$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,17 +33,243 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+  <si>
+    <t>Александров А.А.</t>
+  </si>
+  <si>
+    <t>Зайцев О.А.</t>
+  </si>
+  <si>
+    <t>Иванов И.И.</t>
+  </si>
+  <si>
+    <t>Кузнецов К.К.</t>
+  </si>
+  <si>
+    <t>Маринина М.М.</t>
+  </si>
+  <si>
+    <t>Михайлов М.М.</t>
+  </si>
+  <si>
+    <t>Николаев Н.Н.</t>
+  </si>
+  <si>
+    <t>Петров  П.П.</t>
+  </si>
+  <si>
+    <t>Сидоров С.С.</t>
+  </si>
+  <si>
+    <t>Федоров Ф.Ф.</t>
+  </si>
+  <si>
+    <t>Институт Автоматики и Вычислительной Техники</t>
+  </si>
+  <si>
+    <t>Группа А-1-07</t>
+  </si>
+  <si>
+    <t>ВМ1</t>
+  </si>
+  <si>
+    <t>ВМ2</t>
+  </si>
+  <si>
+    <t>Физика</t>
+  </si>
+  <si>
+    <t>Информатика</t>
+  </si>
+  <si>
+    <t>Пересдачи</t>
+  </si>
+  <si>
+    <t>Категория</t>
+  </si>
+  <si>
+    <t>да</t>
+  </si>
+  <si>
+    <t>Группа А-2-07</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Все 5</t>
+  </si>
+  <si>
+    <t>4 и 5</t>
+  </si>
+  <si>
+    <t>Одна 3</t>
+  </si>
+  <si>
+    <t>Две 3</t>
+  </si>
+  <si>
+    <t>Более двух 3 или пересдачи</t>
+  </si>
+  <si>
+    <t>Итоги экзаменационной сессии ВУЗа</t>
+  </si>
+  <si>
+    <t>Институт</t>
+  </si>
+  <si>
+    <t>Оценки, полученные на экзаменах</t>
+  </si>
+  <si>
+    <t>Всего студентов</t>
+  </si>
+  <si>
+    <t>Все 5, чел.</t>
+  </si>
+  <si>
+    <t>4 и 5, чел.</t>
+  </si>
+  <si>
+    <t>Одна 3, чел.</t>
+  </si>
+  <si>
+    <t>Две 3, чел.</t>
+  </si>
+  <si>
+    <t>Более двух 3 или пересдачи, чел.</t>
+  </si>
+  <si>
+    <t>И1</t>
+  </si>
+  <si>
+    <t>И2</t>
+  </si>
+  <si>
+    <t>И3</t>
+  </si>
+  <si>
+    <t>И4</t>
+  </si>
+  <si>
+    <t>И5</t>
+  </si>
+  <si>
+    <t>И6</t>
+  </si>
+  <si>
+    <t>ВУЗ</t>
+  </si>
+  <si>
+    <t>Стипендиальный фонд ВУЗа</t>
+  </si>
+  <si>
+    <t>Условие назначения стипендии</t>
+  </si>
+  <si>
+    <t>Успеваемость</t>
+  </si>
+  <si>
+    <t>Не ниже 4</t>
+  </si>
+  <si>
+    <t>Все</t>
+  </si>
+  <si>
+    <t>Размер необходимого стипендиального фонда, руб.</t>
+  </si>
+  <si>
+    <t>Использование стипендиального фонда ВУЗа в %</t>
+  </si>
+  <si>
+    <t>Базовая стипендия</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="10">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,7 +287,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -63,17 +295,247 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Денежный" xfId="1" builtinId="4"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -84,6 +546,3178 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="60"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0"/>
+          <c:y val="0.13467592592592592"/>
+          <c:w val="1"/>
+          <c:h val="0.72701334208223967"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Оценки!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Количество</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-EDF0-41C3-9814-484C49301B1E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-EDF0-41C3-9814-484C49301B1E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-EDF0-41C3-9814-484C49301B1E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-EDF0-41C3-9814-484C49301B1E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-EDF0-41C3-9814-484C49301B1E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Оценки!$B$29:$F$29</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Все 5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4 и 5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Одна 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Две 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Более двух 3 или пересдачи</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Оценки!$B$30:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7F55-4E08-A677-770D845A3BF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="60"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8D08-4A05-BE22-4E184976BD09}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8D08-4A05-BE22-4E184976BD09}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8D08-4A05-BE22-4E184976BD09}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8D08-4A05-BE22-4E184976BD09}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-8D08-4A05-BE22-4E184976BD09}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Итоги сессии'!$B$3,'Итоги сессии'!$C$3,'Итоги сессии'!$D$3,'Итоги сессии'!$E$3,'Итоги сессии'!$F$3)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Все 5, чел.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4 и 5, чел.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Одна 3, чел.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Две 3, чел.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Более двух 3 или пересдачи, чел.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Итоги сессии'!$B$10,'Итоги сессии'!$C$10,'Итоги сессии'!$D$10,'Итоги сессии'!$E$10,'Итоги сессии'!$F$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>904</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1634</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE9E-43F8-A21D-4DFAE99109F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" b="1"/>
+              <a:t>Использование</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" b="1" baseline="0"/>
+              <a:t> стипендиального фонда</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Стипендиальный фонд'!$B$3,'Стипендиальный фонд'!$C$3,'Стипендиальный фонд'!$D$3,'Стипендиальный фонд'!$E$3)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Не ниже 4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Одна 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Две 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Все</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Стипендиальный фонд'!$B$5,'Стипендиальный фонд'!$C$5,'Стипендиальный фонд'!$D$5,'Стипендиальный фонд'!$E$5)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.38228556884703485</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54644947823873757</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67319928735047085</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0890811911427845</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F34-48FE-844A-B9580566FC7E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1447652799"/>
+        <c:axId val="1447652383"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1447652799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1447652383"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1447652383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1050" b="1"/>
+                  <a:t> Процентов</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1050" b="1" baseline="0"/>
+                  <a:t> стипендиального фонда</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU" sz="1050" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1447652799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="347">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92ECFCD7-DD78-DE5F-8B56-336D655CE94F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{370AEBAC-9108-4B34-03E7-39E792707597}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3780B608-5A51-47F1-A411-60AA948C7CE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,12 +4037,979 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6848B864-6C7C-4373-8569-AB01606CBE66}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="11.25" customWidth="1"/>
+    <col min="11" max="11" width="13.25" customWidth="1"/>
+    <col min="16" max="16" width="23.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="34.15" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" ht="27" customHeight="1">
+      <c r="A2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" ht="15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="str">
+        <f>IF(F4="да","Пересдачи",IF(COUNTIF(B4:E4,5)=4,"Все 5",IF(COUNTIF(B4:E4,3)=1,"Одна 3",IF(COUNTIF(B4:E4,3)=2,"Две 3",IF(COUNTIF(B4:E4,3)&gt;2,"Более двух 3","4 и 5")))))</f>
+        <v>Все 5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="str">
+        <f t="shared" ref="G5:G13" si="0">IF(F5="да","Пересдачи",IF(COUNTIF(B5:E5,5)=4,"Все 5",IF(COUNTIF(B5:E5,3)=1,"Одна 3",IF(COUNTIF(B5:E5,3)=2,"Две 3",IF(COUNTIF(B5:E5,3)&gt;2,"Более двух 3","4 и 5")))))</f>
+        <v>4 и 5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4 и 5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Две 3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6">
+        <v>5</v>
+      </c>
+      <c r="E8" s="6">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Все 5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Одна 3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6">
+        <v>4</v>
+      </c>
+      <c r="E10" s="6">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4 и 5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6">
+        <v>4</v>
+      </c>
+      <c r="D11" s="6">
+        <v>4</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Одна 3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6">
+        <v>3</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Более двух 3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3</v>
+      </c>
+      <c r="D13" s="6">
+        <v>4</v>
+      </c>
+      <c r="E13" s="6">
+        <v>3</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Пересдачи</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="21" customHeight="1">
+      <c r="A14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7" ht="18" customHeight="1">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:7" ht="15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="6">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6">
+        <v>4</v>
+      </c>
+      <c r="D17" s="6">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="str">
+        <f>IF(F17="да","Пересдачи",IF(COUNTIF(B17:E17,5)=4,"Все 5",IF(COUNTIF(B17:E17,3)=1,"Одна 3",IF(COUNTIF(B17:E17,3)=2,"Две 3",IF(COUNTIF(B17:E17,3)&gt;2,"Более двух 3","4 и 5")))))</f>
+        <v>4 и 5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="6">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6">
+        <v>4</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="str">
+        <f t="shared" ref="G18:G26" si="1">IF(F18="да","Пересдачи",IF(COUNTIF(B18:E18,5)=4,"Все 5",IF(COUNTIF(B18:E18,3)=1,"Одна 3",IF(COUNTIF(B18:E18,3)=2,"Две 3",IF(COUNTIF(B18:E18,3)&gt;2,"Более двух 3","4 и 5")))))</f>
+        <v>4 и 5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="6">
+        <v>4</v>
+      </c>
+      <c r="C19" s="6">
+        <v>4</v>
+      </c>
+      <c r="D19" s="6">
+        <v>4</v>
+      </c>
+      <c r="E19" s="6">
+        <v>3</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Пересдачи</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6">
+        <v>3</v>
+      </c>
+      <c r="C20" s="6">
+        <v>3</v>
+      </c>
+      <c r="D20" s="6">
+        <v>4</v>
+      </c>
+      <c r="E20" s="6">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Две 3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="6">
+        <v>5</v>
+      </c>
+      <c r="C21" s="6">
+        <v>5</v>
+      </c>
+      <c r="D21" s="6">
+        <v>5</v>
+      </c>
+      <c r="E21" s="6">
+        <v>5</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Все 5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="6">
+        <v>5</v>
+      </c>
+      <c r="C22" s="6">
+        <v>5</v>
+      </c>
+      <c r="D22" s="6">
+        <v>5</v>
+      </c>
+      <c r="E22" s="6">
+        <v>5</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Все 5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="6">
+        <v>5</v>
+      </c>
+      <c r="C23" s="6">
+        <v>3</v>
+      </c>
+      <c r="D23" s="6">
+        <v>4</v>
+      </c>
+      <c r="E23" s="6">
+        <v>5</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Одна 3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="6">
+        <v>3</v>
+      </c>
+      <c r="C24" s="6">
+        <v>4</v>
+      </c>
+      <c r="D24" s="6">
+        <v>4</v>
+      </c>
+      <c r="E24" s="6">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Две 3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="6">
+        <v>5</v>
+      </c>
+      <c r="C25" s="6">
+        <v>5</v>
+      </c>
+      <c r="D25" s="6">
+        <v>5</v>
+      </c>
+      <c r="E25" s="6">
+        <v>5</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Все 5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="6">
+        <v>4</v>
+      </c>
+      <c r="C26" s="6">
+        <v>4</v>
+      </c>
+      <c r="D26" s="6">
+        <v>4</v>
+      </c>
+      <c r="E26" s="6">
+        <v>4</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4 и 5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="42.75">
+      <c r="A29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15">
+      <c r="A30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="1">
+        <f>COUNTIF($G$4:$G$26,B29)</f>
+        <v>5</v>
+      </c>
+      <c r="C30" s="1">
+        <f>COUNTIF($G$4:$G$26,C29)</f>
+        <v>6</v>
+      </c>
+      <c r="D30" s="1">
+        <f>COUNTIF($G$4:$G$26,D29)</f>
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
+        <f>COUNTIF($G$4:$G$26,E29)</f>
+        <v>3</v>
+      </c>
+      <c r="F30" s="1">
+        <f>COUNTIF($G$4:$G$26,G12) + COUNTIF($G$4:$G$26,G13)</f>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A14:F15"/>
+    <mergeCell ref="G14:G15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC74C30-5B16-4096-B0D9-253672584D67}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="36" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.899999999999999" customHeight="1">
+      <c r="A2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45" customHeight="1">
+      <c r="A3" s="25"/>
+      <c r="B3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1">
+        <v>96</v>
+      </c>
+      <c r="D4" s="1">
+        <v>97</v>
+      </c>
+      <c r="E4" s="1">
+        <v>93</v>
+      </c>
+      <c r="F4" s="1">
+        <v>208</v>
+      </c>
+      <c r="G4" s="1">
+        <f>SUM(B4:F4)</f>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1">
+        <v>59</v>
+      </c>
+      <c r="C5" s="1">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1">
+        <v>120</v>
+      </c>
+      <c r="E5" s="1">
+        <v>95</v>
+      </c>
+      <c r="F5" s="1">
+        <v>190</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G9" si="0">SUM(B5:F5)</f>
+        <v>589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1">
+        <v>69</v>
+      </c>
+      <c r="C6" s="1">
+        <v>200</v>
+      </c>
+      <c r="D6" s="1">
+        <v>121</v>
+      </c>
+      <c r="E6" s="1">
+        <v>75</v>
+      </c>
+      <c r="F6" s="1">
+        <v>236</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1">
+        <v>159</v>
+      </c>
+      <c r="D7" s="1">
+        <v>99</v>
+      </c>
+      <c r="E7" s="1">
+        <v>71</v>
+      </c>
+      <c r="F7" s="1">
+        <v>320</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1">
+        <v>149</v>
+      </c>
+      <c r="D8" s="1">
+        <v>70</v>
+      </c>
+      <c r="E8" s="1">
+        <v>63</v>
+      </c>
+      <c r="F8" s="1">
+        <v>179</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1">
+        <v>175</v>
+      </c>
+      <c r="D9" s="1">
+        <v>138</v>
+      </c>
+      <c r="E9" s="1">
+        <v>101</v>
+      </c>
+      <c r="F9" s="1">
+        <v>501</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15">
+      <c r="A10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="12">
+        <f>SUM(B4:B9)</f>
+        <v>248</v>
+      </c>
+      <c r="C10" s="12">
+        <f t="shared" ref="C10:G10" si="1">SUM(C4:C9)</f>
+        <v>904</v>
+      </c>
+      <c r="D10" s="12">
+        <f t="shared" si="1"/>
+        <v>645</v>
+      </c>
+      <c r="E10" s="12">
+        <f t="shared" si="1"/>
+        <v>498</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" si="1"/>
+        <v>1634</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="1"/>
+        <v>3929</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009D5FD6-BCD9-4EAC-94FE-18BC02BCDF05}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="5" width="12.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="43.15" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:5" ht="26.45" customHeight="1">
+      <c r="A2" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+    </row>
+    <row r="3" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A3" s="32"/>
+      <c r="B3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="56.25" customHeight="1">
+      <c r="A4" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="40">
+        <f>('Итоги сессии'!B10*1.5+'Итоги сессии'!C10*1.25)*Базовая</f>
+        <v>300400</v>
+      </c>
+      <c r="C4" s="40">
+        <f>('Итоги сессии'!B10*1.5+'Итоги сессии'!C10*1.25+'Итоги сессии'!D10)*Базовая</f>
+        <v>429400</v>
+      </c>
+      <c r="D4" s="40">
+        <f>('Итоги сессии'!B10*1.5+'Итоги сессии'!C10*1.25+'Итоги сессии'!D10+'Итоги сессии'!E10)*Базовая</f>
+        <v>529000</v>
+      </c>
+      <c r="E4" s="40">
+        <f>('Итоги сессии'!B10*1.5+'Итоги сессии'!C10*1.25+'Итоги сессии'!D10+'Итоги сессии'!E10+'Итоги сессии'!F10)*Базовая</f>
+        <v>855800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="42.75">
+      <c r="A5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="39">
+        <f>B4/Фонд</f>
+        <v>0.38228556884703485</v>
+      </c>
+      <c r="C5" s="39">
+        <f>C4/Фонд</f>
+        <v>0.54644947823873757</v>
+      </c>
+      <c r="D5" s="39">
+        <f>D4/Фонд</f>
+        <v>0.67319928735047085</v>
+      </c>
+      <c r="E5" s="39">
+        <f>E4/Фонд</f>
+        <v>1.0890811911427845</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="C7" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="C8" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="37">
+        <f>'Итоги сессии'!G10*Базовая</f>
+        <v>785800</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B5:E5">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>